--- a/Document/매달리기 룰.xlsx
+++ b/Document/매달리기 룰.xlsx
@@ -51,19 +51,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사다리 타기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 시스템 개요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. 시스템 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매달리기 룰 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -143,6 +135,14 @@
   </si>
   <si>
     <t>매달리기 작동 안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매달리기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매달리기 룰 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3098,7 +3098,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3130,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -3199,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3212,68 +3212,68 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -3282,10 +3282,10 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -3335,10 +3335,10 @@
     <row r="33" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -3396,10 +3396,10 @@
     <row r="48" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
@@ -3457,7 +3457,7 @@
     <row r="63" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">

--- a/Document/매달리기 룰.xlsx
+++ b/Document/매달리기 룰.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,14 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 매달렸다 해재하는 것에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 오브젝트의 끝부분에 충돌시 매달리기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 오직 점프나 착지 상태일때만 작동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -145,12 +137,232 @@
     <t>매달리기 룰 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> - 오브젝트의 벽부분에 충돌시 체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">접촉 예시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>벽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라운드 체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>매달리기 체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 플레이어</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오직 점프 상태일때만 작동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">올라가기 예시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>벽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 플레이어</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">올라가기 예시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>벽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 플레이어</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">내려가기 예시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>벽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 플레이어</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">내려가기 예시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>벽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 플레이어</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">점프하기 예시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>벽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 플레이어</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +414,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -768,214 +996,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1419225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="그룹 15"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1390650" y="4667250"/>
-          <a:ext cx="457200" cy="638175"/>
-          <a:chOff x="2419350" y="4543425"/>
-          <a:chExt cx="457200" cy="638175"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="직사각형 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2419350" y="4543425"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="직선 연결선 12"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="6" idx="0"/>
-            <a:endCxn id="6" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2647950" y="4543425"/>
-            <a:ext cx="0" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="그룹 54"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5476875" y="4648200"/>
-          <a:ext cx="457200" cy="638175"/>
-          <a:chOff x="2419350" y="4543425"/>
-          <a:chExt cx="457200" cy="638175"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="직사각형 55"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2419350" y="4543425"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="57" name="직선 연결선 56"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="56" idx="0"/>
-            <a:endCxn id="56" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2647950" y="4543425"/>
-            <a:ext cx="0" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2371725</xdr:colOff>
+      <xdr:colOff>2438400</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3276600</xdr:colOff>
+      <xdr:colOff>3343275</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -986,7 +1014,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7105650" y="4610100"/>
+          <a:off x="7172325" y="4610100"/>
           <a:ext cx="904875" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="noSmoking">
@@ -1032,15 +1060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2257425</xdr:colOff>
+      <xdr:colOff>2533650</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3267075</xdr:colOff>
+      <xdr:colOff>3543300</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1049,7 +1077,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2686050" y="4610100"/>
+          <a:off x="2962275" y="4600575"/>
           <a:ext cx="1009650" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="donut">
@@ -1416,109 +1444,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="64" name="그룹 63"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1381125" y="8315325"/>
-          <a:ext cx="457200" cy="638175"/>
-          <a:chOff x="2419350" y="4543425"/>
-          <a:chExt cx="457200" cy="638175"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="직사각형 64"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2419350" y="4543425"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="66" name="직선 연결선 65"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="65" idx="0"/>
-            <a:endCxn id="65" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2647950" y="4543425"/>
-            <a:ext cx="0" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
@@ -1533,8 +1461,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="8848725"/>
-          <a:ext cx="0" cy="542926"/>
+          <a:off x="1809750" y="12049125"/>
+          <a:ext cx="0" cy="390526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1784,106 +1712,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="74" name="그룹 73"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1381125" y="11363325"/>
-          <a:ext cx="457200" cy="638175"/>
-          <a:chOff x="2419350" y="4543425"/>
-          <a:chExt cx="457200" cy="638175"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="직사각형 74"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2419350" y="4543425"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="76" name="직선 연결선 75"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="75" idx="0"/>
-            <a:endCxn id="75" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2647950" y="4543425"/>
-            <a:ext cx="0" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>55</xdr:row>
@@ -2047,206 +1875,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="84" name="그룹 83"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5810250" y="11944350"/>
-          <a:ext cx="457200" cy="638175"/>
-          <a:chOff x="2419350" y="4543425"/>
-          <a:chExt cx="457200" cy="638175"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="직사각형 84"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2419350" y="4543425"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="86" name="직선 연결선 85"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="85" idx="0"/>
-            <a:endCxn id="85" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2647950" y="4543425"/>
-            <a:ext cx="0" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="87" name="그룹 86"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5143500" y="7724775"/>
-          <a:ext cx="457200" cy="638175"/>
-          <a:chOff x="2419350" y="4543425"/>
-          <a:chExt cx="457200" cy="638175"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="직사각형 87"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2419350" y="4543425"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="직선 연결선 88"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="88" idx="0"/>
-            <a:endCxn id="88" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2647950" y="4543425"/>
-            <a:ext cx="0" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2305,13 +1933,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:colOff>847726</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1218762</xdr:colOff>
+      <xdr:colOff>1218763</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>190062</xdr:rowOff>
     </xdr:to>
@@ -2320,13 +1948,13 @@
         <xdr:cNvPr id="39" name="구부러진 연결선 38"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="1"/>
-          <a:endCxn id="88" idx="3"/>
+          <a:endCxn id="75" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5555457" y="8089106"/>
-          <a:ext cx="442474" cy="351987"/>
+          <a:off x="5531645" y="8065294"/>
+          <a:ext cx="471049" cy="371037"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2413,33 +2041,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:colOff>1200150</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="96" name="구부러진 연결선 95"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="95" idx="6"/>
-          <a:endCxn id="85" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6010275" y="11339513"/>
+          <a:off x="5934075" y="11339513"/>
           <a:ext cx="28575" cy="604837"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2732,37 +2362,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>981076</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1514474</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="107" name="그룹 106"/>
+        <xdr:cNvPr id="5" name="그룹 4"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1381125" y="14382750"/>
-          <a:ext cx="457200" cy="638175"/>
-          <a:chOff x="2419350" y="4543425"/>
-          <a:chExt cx="457200" cy="638175"/>
+          <a:off x="1409701" y="5153025"/>
+          <a:ext cx="533398" cy="676274"/>
+          <a:chOff x="1638301" y="5095875"/>
+          <a:chExt cx="533398" cy="676274"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="직사각형 107"/>
+          <xdr:cNvPr id="6" name="직사각형 5"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2419350" y="4543425"/>
+            <a:off x="1695450" y="5095875"/>
             <a:ext cx="457200" cy="638175"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2794,38 +2424,1339 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="109" name="직선 연결선 108"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="108" idx="0"/>
-            <a:endCxn id="108" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="직사각형 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2647950" y="4543425"/>
-            <a:ext cx="0" cy="638175"/>
+            <a:off x="1657350" y="5657850"/>
+            <a:ext cx="514349" cy="114299"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent6"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
-      </xdr:cxnSp>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="직사각형 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638301" y="5124451"/>
+            <a:ext cx="152400" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371599</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="그룹 53"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5572126" y="4600575"/>
+          <a:ext cx="533398" cy="676274"/>
+          <a:chOff x="1638301" y="5095875"/>
+          <a:chExt cx="533398" cy="676274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="직사각형 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1695450" y="5095875"/>
+            <a:ext cx="457200" cy="638175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="직사각형 55"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1657350" y="5657850"/>
+            <a:ext cx="514349" cy="114299"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="직사각형 56"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638301" y="5124451"/>
+            <a:ext cx="152400" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485899</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="그룹 63"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1381126" y="8220075"/>
+          <a:ext cx="533398" cy="676274"/>
+          <a:chOff x="1638301" y="5095875"/>
+          <a:chExt cx="533398" cy="676274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="직사각형 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1695450" y="5095875"/>
+            <a:ext cx="457200" cy="638175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="직사각형 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1657350" y="5657850"/>
+            <a:ext cx="514349" cy="114299"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="직사각형 66"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638301" y="5124451"/>
+            <a:ext cx="152400" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>866774</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="그룹 73"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5067301" y="7696200"/>
+          <a:ext cx="533398" cy="676274"/>
+          <a:chOff x="1638301" y="5095875"/>
+          <a:chExt cx="533398" cy="676274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="직사각형 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1695450" y="5095875"/>
+            <a:ext cx="457200" cy="638175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="직사각형 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1657350" y="5657850"/>
+            <a:ext cx="514349" cy="114299"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="직사각형 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638301" y="5124451"/>
+            <a:ext cx="152400" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485899</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="그룹 77"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1381126" y="11315700"/>
+          <a:ext cx="533398" cy="676274"/>
+          <a:chOff x="1638301" y="5095875"/>
+          <a:chExt cx="533398" cy="676274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="직사각형 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1695450" y="5095875"/>
+            <a:ext cx="457200" cy="638175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="직사각형 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1657350" y="5657850"/>
+            <a:ext cx="514349" cy="114299"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="직사각형 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638301" y="5124451"/>
+            <a:ext cx="152400" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981076</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1514474</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="그룹 85"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5715001" y="11953875"/>
+          <a:ext cx="533398" cy="676274"/>
+          <a:chOff x="1638301" y="5095875"/>
+          <a:chExt cx="533398" cy="676274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="직사각형 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1695450" y="5095875"/>
+            <a:ext cx="457200" cy="638175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="직사각형 87"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1657350" y="5657850"/>
+            <a:ext cx="514349" cy="114299"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="직사각형 88"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638301" y="5124451"/>
+            <a:ext cx="152400" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485899</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="90" name="그룹 89"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1381126" y="14363700"/>
+          <a:ext cx="533398" cy="676274"/>
+          <a:chOff x="1638301" y="5095875"/>
+          <a:chExt cx="533398" cy="676274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="직사각형 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1695450" y="5095875"/>
+            <a:ext cx="457200" cy="638175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="직사각형 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1657350" y="5657850"/>
+            <a:ext cx="514349" cy="114299"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="직사각형 96"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638301" y="5124451"/>
+            <a:ext cx="152400" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="직선 화살표 연결선 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5981700" y="14106525"/>
+          <a:ext cx="9525" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>140969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="직사각형 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="14458950"/>
+          <a:ext cx="628650" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="직사각형 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="14458950"/>
+          <a:ext cx="114300" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3686175</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="직사각형 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="15611475"/>
+          <a:ext cx="2809875" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981076</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1514474</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="113" name="그룹 112"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5715001" y="13268325"/>
+          <a:ext cx="533398" cy="676274"/>
+          <a:chOff x="1638301" y="5095875"/>
+          <a:chExt cx="533398" cy="676274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="직사각형 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1695450" y="5095875"/>
+            <a:ext cx="457200" cy="638175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="직사각형 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1657350" y="5657850"/>
+            <a:ext cx="514349" cy="114299"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="직사각형 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638301" y="5124451"/>
+            <a:ext cx="152400" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3130,7 +4061,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -3200,7 +4131,7 @@
   <dimension ref="B2:C77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3212,7 +4143,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3237,43 +4168,43 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -3282,10 +4213,10 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -3335,10 +4266,10 @@
     <row r="33" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -3396,10 +4327,10 @@
     <row r="48" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
@@ -3457,47 +4388,63 @@
     <row r="63" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/매달리기 룰.xlsx
+++ b/Document/매달리기 룰.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,14 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 플레이어의 정면에 오브젝트가 있을때만 작동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 매달리는 도중 W를 누를시 오브젝트 위로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 매달리는 도중 S를 누를시 오브젝트 아래로 이동.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -219,7 +211,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">올라가기 예시 </t>
+      <t xml:space="preserve">점프하기 예시 </t>
     </r>
     <r>
       <rPr>
@@ -246,115 +238,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">올라가기 예시 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>벽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 플레이어</t>
-    </r>
+    <t>2019.04.15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">내려가기 예시 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>벽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 플레이어</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">내려가기 예시 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>벽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 플레이어</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">점프하기 예시 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>벽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 플레이어</t>
-    </r>
+    <t>룰 수정[ 올라가기, 내려가기 제거]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -567,13 +455,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>102869</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -621,13 +509,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -675,13 +563,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3714750</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -727,122 +615,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="직선 화살표 연결선 22"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1562100" y="7734300"/>
-          <a:ext cx="0" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>82903</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="직사각형 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="7800975"/>
-          <a:ext cx="361950" cy="368653"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
-            <a:t>W</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>64769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -890,13 +671,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -944,13 +725,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3686175</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -998,13 +779,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2438400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1061,13 +842,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2533650</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3543300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1120,1034 +901,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>140969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="직사각형 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="8391525"/>
-          <a:ext cx="628650" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="직사각형 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1304925" y="8391525"/>
-          <a:ext cx="114300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3686175</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="직사각형 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1304925" y="9544050"/>
-          <a:ext cx="2809875" cy="57150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>179069</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="직사각형 60"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4991100" y="8429625"/>
-          <a:ext cx="628650" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="직사각형 61"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5619750" y="8429625"/>
-          <a:ext cx="114300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3695700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="직사각형 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5619750" y="9582150"/>
-          <a:ext cx="2809875" cy="57150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="직선 화살표 연결선 67"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="12049125"/>
-          <a:ext cx="0" cy="390526"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1895475</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>149578</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="직사각형 69"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1962150" y="8915400"/>
-          <a:ext cx="361950" cy="368653"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
-            <a:t>S</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>140969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="직사각형 70"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="8391525"/>
-          <a:ext cx="628650" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="직사각형 71"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1304925" y="8391525"/>
-          <a:ext cx="114300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3686175</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="직사각형 72"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1304925" y="9544050"/>
-          <a:ext cx="2809875" cy="57150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>140969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="직사각형 80"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="11439525"/>
-          <a:ext cx="628650" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="직사각형 81"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1304925" y="11439525"/>
-          <a:ext cx="114300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3686175</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="직사각형 82"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1304925" y="12592050"/>
-          <a:ext cx="2809875" cy="57150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="타원 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5915025" y="8448675"/>
-          <a:ext cx="257175" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>847726</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1218763</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190062</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="구부러진 연결선 38"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="1"/>
-          <a:endCxn id="75" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5531645" y="8065294"/>
-          <a:ext cx="471049" cy="371037"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="타원 94"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5753100" y="11210925"/>
-          <a:ext cx="257175" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>204788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="구부러진 연결선 95"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="11339513"/>
-          <a:ext cx="28575" cy="604837"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="직선 화살표 연결선 101"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1619250" y="13649325"/>
-          <a:ext cx="9525" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>1343024</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2466975</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>63853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2201,13 +962,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>140969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2255,13 +1016,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2309,13 +1070,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3686175</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2363,13 +1124,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>981076</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514474</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2379,7 +1140,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1409701" y="5153025"/>
+          <a:off x="1409701" y="4733925"/>
           <a:ext cx="533398" cy="676274"/>
           <a:chOff x="1638301" y="5095875"/>
           <a:chExt cx="533398" cy="676274"/>
@@ -2512,13 +1273,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>838201</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1371599</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2528,7 +1289,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5572126" y="4600575"/>
+          <a:off x="5572126" y="4181475"/>
           <a:ext cx="533398" cy="676274"/>
           <a:chOff x="1638301" y="5095875"/>
           <a:chExt cx="533398" cy="676274"/>
@@ -2661,609 +1422,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>952501</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1485899</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="64" name="그룹 63"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1381126" y="8220075"/>
-          <a:ext cx="533398" cy="676274"/>
-          <a:chOff x="1638301" y="5095875"/>
-          <a:chExt cx="533398" cy="676274"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="직사각형 64"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1695450" y="5095875"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="직사각형 65"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1657350" y="5657850"/>
-            <a:ext cx="514349" cy="114299"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="직사각형 66"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1638301" y="5124451"/>
-            <a:ext cx="152400" cy="171450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>866774</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="74" name="그룹 73"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5067301" y="7696200"/>
-          <a:ext cx="533398" cy="676274"/>
-          <a:chOff x="1638301" y="5095875"/>
-          <a:chExt cx="533398" cy="676274"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="직사각형 74"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1695450" y="5095875"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="직사각형 75"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1657350" y="5657850"/>
-            <a:ext cx="514349" cy="114299"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="직사각형 76"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1638301" y="5124451"/>
-            <a:ext cx="152400" cy="171450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952501</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1485899</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="78" name="그룹 77"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1381126" y="11315700"/>
-          <a:ext cx="533398" cy="676274"/>
-          <a:chOff x="1638301" y="5095875"/>
-          <a:chExt cx="533398" cy="676274"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="직사각형 79"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1695450" y="5095875"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="직사각형 83"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1657350" y="5657850"/>
-            <a:ext cx="514349" cy="114299"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="직사각형 84"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1638301" y="5124451"/>
-            <a:ext cx="152400" cy="171450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>981076</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1514474</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="86" name="그룹 85"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5715001" y="11953875"/>
-          <a:ext cx="533398" cy="676274"/>
-          <a:chOff x="1638301" y="5095875"/>
-          <a:chExt cx="533398" cy="676274"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="직사각형 86"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1695450" y="5095875"/>
-            <a:ext cx="457200" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="직사각형 87"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1657350" y="5657850"/>
-            <a:ext cx="514349" cy="114299"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="직사각형 88"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1638301" y="5124451"/>
-            <a:ext cx="152400" cy="171450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952501</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1485899</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3273,7 +1438,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1381126" y="14363700"/>
+          <a:off x="1381126" y="7877175"/>
           <a:ext cx="533398" cy="676274"/>
           <a:chOff x="1638301" y="5095875"/>
           <a:chExt cx="533398" cy="676274"/>
@@ -3405,61 +1570,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="직선 화살표 연결선 97"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5981700" y="14106525"/>
-          <a:ext cx="9525" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>140969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3507,13 +1625,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3561,13 +1679,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3686175</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3614,15 +1732,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>981076</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1514474</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3631,7 +1749,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5715001" y="13268325"/>
+          <a:off x="4953001" y="7239000"/>
           <a:ext cx="533398" cy="676274"/>
           <a:chOff x="1638301" y="5095875"/>
           <a:chExt cx="533398" cy="676274"/>
@@ -3757,6 +1875,218 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="그룹 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="847725" y="7239000"/>
+          <a:ext cx="819150" cy="628650"/>
+          <a:chOff x="2724150" y="7553325"/>
+          <a:chExt cx="819150" cy="628650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="타원 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2724150" y="7553325"/>
+            <a:ext cx="381000" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="39" name="구부러진 연결선 38"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="38" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="3105150" y="7743825"/>
+            <a:ext cx="438150" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="그룹 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5334000" y="7400925"/>
+          <a:ext cx="819150" cy="628650"/>
+          <a:chOff x="2724150" y="7553325"/>
+          <a:chExt cx="819150" cy="628650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="타원 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2724150" y="7553325"/>
+            <a:ext cx="381000" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="구부러진 연결선 43"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="43" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="3105150" y="7743825"/>
+            <a:ext cx="438150" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4029,7 +2359,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4061,14 +2391,20 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -4128,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C77"/>
+  <dimension ref="B2:C45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4143,7 +2479,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4168,12 +2504,12 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
@@ -4187,37 +2523,35 @@
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
@@ -4252,29 +2586,29 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
@@ -4313,138 +2647,8 @@
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
